--- a/contratos/contratos-1-2020.xlsx
+++ b/contratos/contratos-1-2020.xlsx
@@ -1219,7 +1219,7 @@
     <t>NESTOR SIGOT S.A.</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>LATIN PLAY S.R.L.</t>
@@ -1354,7 +1354,7 @@
     <t>OGGUIER NORMA BEATRIZ</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PINO ADRIAN MATIAS</t>
@@ -1363,7 +1363,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1975,820 +1975,820 @@
     <t>40</t>
   </si>
   <si>
-    <t>18.300,00</t>
-  </si>
-  <si>
-    <t>19.850,00</t>
-  </si>
-  <si>
-    <t>1.558.000,00</t>
-  </si>
-  <si>
-    <t>458.000,00</t>
-  </si>
-  <si>
-    <t>99.234,00</t>
-  </si>
-  <si>
-    <t>141.000,00</t>
-  </si>
-  <si>
-    <t>882.000,00</t>
-  </si>
-  <si>
-    <t>2.954.160,00</t>
-  </si>
-  <si>
-    <t>1.312.400,00</t>
-  </si>
-  <si>
-    <t>35.872,00</t>
-  </si>
-  <si>
-    <t>11.980,00</t>
-  </si>
-  <si>
-    <t>21.230,00</t>
-  </si>
-  <si>
-    <t>3.779,00</t>
-  </si>
-  <si>
-    <t>1.098,00</t>
-  </si>
-  <si>
-    <t>23.030,00</t>
-  </si>
-  <si>
-    <t>756.462,17</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>109.047,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>1.844.866,02</t>
-  </si>
-  <si>
-    <t>521.803,24</t>
-  </si>
-  <si>
-    <t>364.065,72</t>
-  </si>
-  <si>
-    <t>102.280,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>3.806,00</t>
-  </si>
-  <si>
-    <t>653.718,08</t>
-  </si>
-  <si>
-    <t>455.848,00</t>
-  </si>
-  <si>
-    <t>52.232,35</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>16.407,00</t>
-  </si>
-  <si>
-    <t>173.268,00</t>
-  </si>
-  <si>
-    <t>9.127,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>156.298,56</t>
-  </si>
-  <si>
-    <t>11.440,00</t>
-  </si>
-  <si>
-    <t>55.423,50</t>
-  </si>
-  <si>
-    <t>123.059,10</t>
-  </si>
-  <si>
-    <t>14.367,00</t>
-  </si>
-  <si>
-    <t>102.600,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>87.835,15</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>13.250,00</t>
-  </si>
-  <si>
-    <t>21.300,00</t>
-  </si>
-  <si>
-    <t>17.900,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>5.989,45</t>
-  </si>
-  <si>
-    <t>873,14</t>
-  </si>
-  <si>
-    <t>56.910,00</t>
-  </si>
-  <si>
-    <t>4.565,00</t>
-  </si>
-  <si>
-    <t>109.376,46</t>
-  </si>
-  <si>
-    <t>1.990,00</t>
-  </si>
-  <si>
-    <t>69.297,38</t>
-  </si>
-  <si>
-    <t>23.010,00</t>
-  </si>
-  <si>
-    <t>2.321,00</t>
-  </si>
-  <si>
-    <t>159.846,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>763.118,00</t>
-  </si>
-  <si>
-    <t>691,50</t>
-  </si>
-  <si>
-    <t>5.780,78</t>
-  </si>
-  <si>
-    <t>6.744,00</t>
-  </si>
-  <si>
-    <t>21.954,13</t>
-  </si>
-  <si>
-    <t>7.400,00</t>
-  </si>
-  <si>
-    <t>33.220,00</t>
-  </si>
-  <si>
-    <t>19.371,17</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>61.214,00</t>
-  </si>
-  <si>
-    <t>50.437,00</t>
-  </si>
-  <si>
-    <t>10.556,00</t>
-  </si>
-  <si>
-    <t>30.800,00</t>
-  </si>
-  <si>
-    <t>102.432,89</t>
-  </si>
-  <si>
-    <t>7.271,98</t>
-  </si>
-  <si>
-    <t>1.374,75</t>
-  </si>
-  <si>
-    <t>18.345,72</t>
-  </si>
-  <si>
-    <t>35.997,94</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>7.029,75</t>
-  </si>
-  <si>
-    <t>2.095,65</t>
-  </si>
-  <si>
-    <t>50.746,86</t>
-  </si>
-  <si>
-    <t>496,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>102.728,50</t>
-  </si>
-  <si>
-    <t>65.101,08</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>8.999,95</t>
-  </si>
-  <si>
-    <t>23.246,92</t>
-  </si>
-  <si>
-    <t>1.128,81</t>
-  </si>
-  <si>
-    <t>26.541,97</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>73.336,00</t>
-  </si>
-  <si>
-    <t>34.144,66</t>
-  </si>
-  <si>
-    <t>73.530,00</t>
-  </si>
-  <si>
-    <t>9.848,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>42.429,73</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>59.400,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>112,82</t>
-  </si>
-  <si>
-    <t>166,87</t>
-  </si>
-  <si>
-    <t>77.889,10</t>
-  </si>
-  <si>
-    <t>153.588,50</t>
-  </si>
-  <si>
-    <t>9.010,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>52.475,00</t>
-  </si>
-  <si>
-    <t>98.577,36</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>82.500,00</t>
-  </si>
-  <si>
-    <t>6.070,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>229.999,98</t>
-  </si>
-  <si>
-    <t>1.230,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>206.351,00</t>
-  </si>
-  <si>
-    <t>21.048,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>71.465,00</t>
-  </si>
-  <si>
-    <t>132.526,18</t>
-  </si>
-  <si>
-    <t>61.877,02</t>
-  </si>
-  <si>
-    <t>9.880,00</t>
-  </si>
-  <si>
-    <t>31,07</t>
-  </si>
-  <si>
-    <t>15.661,75</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>1.055,00</t>
-  </si>
-  <si>
-    <t>3.691,28</t>
-  </si>
-  <si>
-    <t>474,00</t>
-  </si>
-  <si>
-    <t>12.726,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>68.929,00</t>
-  </si>
-  <si>
-    <t>13.980,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>4.998,00</t>
-  </si>
-  <si>
-    <t>22.630,00</t>
-  </si>
-  <si>
-    <t>21.130,00</t>
-  </si>
-  <si>
-    <t>24.850,00</t>
-  </si>
-  <si>
-    <t>425,06</t>
-  </si>
-  <si>
-    <t>9.992,00</t>
-  </si>
-  <si>
-    <t>78.664,44</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>39.950,00</t>
-  </si>
-  <si>
-    <t>823,32</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>21.030,00</t>
-  </si>
-  <si>
-    <t>3.652,20</t>
-  </si>
-  <si>
-    <t>19.740,00</t>
-  </si>
-  <si>
-    <t>2.510,00</t>
-  </si>
-  <si>
-    <t>16.710,00</t>
-  </si>
-  <si>
-    <t>86.190,00</t>
-  </si>
-  <si>
-    <t>106.700,00</t>
-  </si>
-  <si>
-    <t>10.350,00</t>
-  </si>
-  <si>
-    <t>17.800,00</t>
-  </si>
-  <si>
-    <t>107.000,00</t>
-  </si>
-  <si>
-    <t>147.278,80</t>
-  </si>
-  <si>
-    <t>119.214,00</t>
-  </si>
-  <si>
-    <t>305.738,00</t>
-  </si>
-  <si>
-    <t>44.390,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>77.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>68.000,00</t>
-  </si>
-  <si>
-    <t>10.145.175,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>1.736,32</t>
-  </si>
-  <si>
-    <t>16.904,00</t>
-  </si>
-  <si>
-    <t>19.390,00</t>
-  </si>
-  <si>
-    <t>15.494,18</t>
-  </si>
-  <si>
-    <t>15.196,00</t>
-  </si>
-  <si>
-    <t>6.965.240,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>84.700,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>74.000,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>143.475,00</t>
-  </si>
-  <si>
-    <t>20.300,00</t>
-  </si>
-  <si>
-    <t>2.272,05</t>
-  </si>
-  <si>
-    <t>1.454,83</t>
-  </si>
-  <si>
-    <t>23.770,00</t>
-  </si>
-  <si>
-    <t>1.641,75</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>4.820,00</t>
-  </si>
-  <si>
-    <t>246.800,00</t>
-  </si>
-  <si>
-    <t>11.050,00</t>
-  </si>
-  <si>
-    <t>16.530,06</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>24.910,00</t>
-  </si>
-  <si>
-    <t>18.064,00</t>
-  </si>
-  <si>
-    <t>26.413,09</t>
-  </si>
-  <si>
-    <t>934,80</t>
-  </si>
-  <si>
-    <t>27.881,85</t>
-  </si>
-  <si>
-    <t>2.519,00</t>
-  </si>
-  <si>
-    <t>4.829,80</t>
-  </si>
-  <si>
-    <t>18.240,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>94.297,49</t>
-  </si>
-  <si>
-    <t>12.796,80</t>
-  </si>
-  <si>
-    <t>534.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>908,54</t>
-  </si>
-  <si>
-    <t>849.636,00</t>
-  </si>
-  <si>
-    <t>1.634.620,07</t>
-  </si>
-  <si>
-    <t>18.191,53</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>353.940,00</t>
-  </si>
-  <si>
-    <t>336.740,00</t>
-  </si>
-  <si>
-    <t>314.100,00</t>
-  </si>
-  <si>
-    <t>322.100,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>795.860,00</t>
-  </si>
-  <si>
-    <t>737.000,00</t>
-  </si>
-  <si>
-    <t>512.300,00</t>
-  </si>
-  <si>
-    <t>299.080,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>533.780,00</t>
-  </si>
-  <si>
-    <t>665.090,00</t>
-  </si>
-  <si>
-    <t>911.960,00</t>
-  </si>
-  <si>
-    <t>894.900,00</t>
-  </si>
-  <si>
-    <t>314.330,00</t>
-  </si>
-  <si>
-    <t>327.261,95</t>
-  </si>
-  <si>
-    <t>144.106,40</t>
-  </si>
-  <si>
-    <t>36.700,00</t>
-  </si>
-  <si>
-    <t>366.782,00</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>366.514,02</t>
-  </si>
-  <si>
-    <t>242.990,00</t>
-  </si>
-  <si>
-    <t>18.700,00</t>
-  </si>
-  <si>
-    <t>280.000,00</t>
-  </si>
-  <si>
-    <t>4.552.439,97</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>8.620,00</t>
-  </si>
-  <si>
-    <t>196.000,00</t>
-  </si>
-  <si>
-    <t>556.543,30</t>
-  </si>
-  <si>
-    <t>910.000,00</t>
-  </si>
-  <si>
-    <t>19.706,75</t>
-  </si>
-  <si>
-    <t>4.530,00</t>
-  </si>
-  <si>
-    <t>4.623,11</t>
-  </si>
-  <si>
-    <t>2.778,00</t>
-  </si>
-  <si>
-    <t>19.894,00</t>
+    <t>18300.00</t>
+  </si>
+  <si>
+    <t>19850.00</t>
+  </si>
+  <si>
+    <t>1558000.00</t>
+  </si>
+  <si>
+    <t>458000.00</t>
+  </si>
+  <si>
+    <t>99234.00</t>
+  </si>
+  <si>
+    <t>141000.00</t>
+  </si>
+  <si>
+    <t>882000.00</t>
+  </si>
+  <si>
+    <t>2954160.00</t>
+  </si>
+  <si>
+    <t>1312400.00</t>
+  </si>
+  <si>
+    <t>35872.00</t>
+  </si>
+  <si>
+    <t>11980.00</t>
+  </si>
+  <si>
+    <t>21230.00</t>
+  </si>
+  <si>
+    <t>3779.00</t>
+  </si>
+  <si>
+    <t>1098.00</t>
+  </si>
+  <si>
+    <t>23030.00</t>
+  </si>
+  <si>
+    <t>756462.17</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>109047.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>1844866.02</t>
+  </si>
+  <si>
+    <t>521803.24</t>
+  </si>
+  <si>
+    <t>364065.72</t>
+  </si>
+  <si>
+    <t>102280.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>3806.00</t>
+  </si>
+  <si>
+    <t>653718.08</t>
+  </si>
+  <si>
+    <t>455848.00</t>
+  </si>
+  <si>
+    <t>52232.35</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>16407.00</t>
+  </si>
+  <si>
+    <t>173268.00</t>
+  </si>
+  <si>
+    <t>9127.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>156298.56</t>
+  </si>
+  <si>
+    <t>11440.00</t>
+  </si>
+  <si>
+    <t>55423.50</t>
+  </si>
+  <si>
+    <t>123059.10</t>
+  </si>
+  <si>
+    <t>14367.00</t>
+  </si>
+  <si>
+    <t>102600.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>87835.15</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>13250.00</t>
+  </si>
+  <si>
+    <t>21300.00</t>
+  </si>
+  <si>
+    <t>17900.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>5989.45</t>
+  </si>
+  <si>
+    <t>873.14</t>
+  </si>
+  <si>
+    <t>56910.00</t>
+  </si>
+  <si>
+    <t>4565.00</t>
+  </si>
+  <si>
+    <t>109376.46</t>
+  </si>
+  <si>
+    <t>1990.00</t>
+  </si>
+  <si>
+    <t>69297.38</t>
+  </si>
+  <si>
+    <t>23010.00</t>
+  </si>
+  <si>
+    <t>2321.00</t>
+  </si>
+  <si>
+    <t>159846.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>763118.00</t>
+  </si>
+  <si>
+    <t>691.50</t>
+  </si>
+  <si>
+    <t>5780.78</t>
+  </si>
+  <si>
+    <t>6744.00</t>
+  </si>
+  <si>
+    <t>21954.13</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>33220.00</t>
+  </si>
+  <si>
+    <t>19371.17</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>61214.00</t>
+  </si>
+  <si>
+    <t>50437.00</t>
+  </si>
+  <si>
+    <t>10556.00</t>
+  </si>
+  <si>
+    <t>30800.00</t>
+  </si>
+  <si>
+    <t>102432.89</t>
+  </si>
+  <si>
+    <t>7271.98</t>
+  </si>
+  <si>
+    <t>1374.75</t>
+  </si>
+  <si>
+    <t>18345.72</t>
+  </si>
+  <si>
+    <t>35997.94</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>7029.75</t>
+  </si>
+  <si>
+    <t>2095.65</t>
+  </si>
+  <si>
+    <t>50746.86</t>
+  </si>
+  <si>
+    <t>496.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>102728.50</t>
+  </si>
+  <si>
+    <t>65101.08</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>8999.95</t>
+  </si>
+  <si>
+    <t>23246.92</t>
+  </si>
+  <si>
+    <t>1128.81</t>
+  </si>
+  <si>
+    <t>26541.97</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>73336.00</t>
+  </si>
+  <si>
+    <t>34144.66</t>
+  </si>
+  <si>
+    <t>73530.00</t>
+  </si>
+  <si>
+    <t>9848.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>42429.73</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>59400.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>112.82</t>
+  </si>
+  <si>
+    <t>166.87</t>
+  </si>
+  <si>
+    <t>77889.10</t>
+  </si>
+  <si>
+    <t>153588.50</t>
+  </si>
+  <si>
+    <t>9010.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>52475.00</t>
+  </si>
+  <si>
+    <t>98577.36</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>82500.00</t>
+  </si>
+  <si>
+    <t>6070.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>229999.98</t>
+  </si>
+  <si>
+    <t>1230.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>206351.00</t>
+  </si>
+  <si>
+    <t>21048.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>71465.00</t>
+  </si>
+  <si>
+    <t>132526.18</t>
+  </si>
+  <si>
+    <t>61877.02</t>
+  </si>
+  <si>
+    <t>9880.00</t>
+  </si>
+  <si>
+    <t>31.07</t>
+  </si>
+  <si>
+    <t>15661.75</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>1055.00</t>
+  </si>
+  <si>
+    <t>3691.28</t>
+  </si>
+  <si>
+    <t>474.00</t>
+  </si>
+  <si>
+    <t>12726.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>68929.00</t>
+  </si>
+  <si>
+    <t>13980.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>4998.00</t>
+  </si>
+  <si>
+    <t>22630.00</t>
+  </si>
+  <si>
+    <t>21130.00</t>
+  </si>
+  <si>
+    <t>24850.00</t>
+  </si>
+  <si>
+    <t>425.06</t>
+  </si>
+  <si>
+    <t>9992.00</t>
+  </si>
+  <si>
+    <t>78664.44</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>39950.00</t>
+  </si>
+  <si>
+    <t>823.32</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>21030.00</t>
+  </si>
+  <si>
+    <t>3652.20</t>
+  </si>
+  <si>
+    <t>19740.00</t>
+  </si>
+  <si>
+    <t>2510.00</t>
+  </si>
+  <si>
+    <t>16710.00</t>
+  </si>
+  <si>
+    <t>86190.00</t>
+  </si>
+  <si>
+    <t>106700.00</t>
+  </si>
+  <si>
+    <t>10350.00</t>
+  </si>
+  <si>
+    <t>17800.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>147278.80</t>
+  </si>
+  <si>
+    <t>119214.00</t>
+  </si>
+  <si>
+    <t>305738.00</t>
+  </si>
+  <si>
+    <t>44390.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>77000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>68000.00</t>
+  </si>
+  <si>
+    <t>10145175.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>1736.32</t>
+  </si>
+  <si>
+    <t>16904.00</t>
+  </si>
+  <si>
+    <t>19390.00</t>
+  </si>
+  <si>
+    <t>15494.18</t>
+  </si>
+  <si>
+    <t>15196.00</t>
+  </si>
+  <si>
+    <t>6965240.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>84700.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>143475.00</t>
+  </si>
+  <si>
+    <t>20300.00</t>
+  </si>
+  <si>
+    <t>2272.05</t>
+  </si>
+  <si>
+    <t>1454.83</t>
+  </si>
+  <si>
+    <t>23770.00</t>
+  </si>
+  <si>
+    <t>1641.75</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>4820.00</t>
+  </si>
+  <si>
+    <t>246800.00</t>
+  </si>
+  <si>
+    <t>11050.00</t>
+  </si>
+  <si>
+    <t>16530.06</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>24910.00</t>
+  </si>
+  <si>
+    <t>18064.00</t>
+  </si>
+  <si>
+    <t>26413.09</t>
+  </si>
+  <si>
+    <t>934.80</t>
+  </si>
+  <si>
+    <t>27881.85</t>
+  </si>
+  <si>
+    <t>2519.00</t>
+  </si>
+  <si>
+    <t>4829.80</t>
+  </si>
+  <si>
+    <t>18240.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>94297.49</t>
+  </si>
+  <si>
+    <t>12796.80</t>
+  </si>
+  <si>
+    <t>534000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>908.54</t>
+  </si>
+  <si>
+    <t>849636.00</t>
+  </si>
+  <si>
+    <t>1634620.07</t>
+  </si>
+  <si>
+    <t>18191.53</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>353940.00</t>
+  </si>
+  <si>
+    <t>336740.00</t>
+  </si>
+  <si>
+    <t>314100.00</t>
+  </si>
+  <si>
+    <t>322100.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>795860.00</t>
+  </si>
+  <si>
+    <t>737000.00</t>
+  </si>
+  <si>
+    <t>512300.00</t>
+  </si>
+  <si>
+    <t>299080.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>533780.00</t>
+  </si>
+  <si>
+    <t>665090.00</t>
+  </si>
+  <si>
+    <t>911960.00</t>
+  </si>
+  <si>
+    <t>894900.00</t>
+  </si>
+  <si>
+    <t>314330.00</t>
+  </si>
+  <si>
+    <t>327261.95</t>
+  </si>
+  <si>
+    <t>144106.40</t>
+  </si>
+  <si>
+    <t>36700.00</t>
+  </si>
+  <si>
+    <t>366782.00</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>366514.02</t>
+  </si>
+  <si>
+    <t>242990.00</t>
+  </si>
+  <si>
+    <t>18700.00</t>
+  </si>
+  <si>
+    <t>280000.00</t>
+  </si>
+  <si>
+    <t>4552439.97</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>8620.00</t>
+  </si>
+  <si>
+    <t>196000.00</t>
+  </si>
+  <si>
+    <t>556543.30</t>
+  </si>
+  <si>
+    <t>910000.00</t>
+  </si>
+  <si>
+    <t>19706.75</t>
+  </si>
+  <si>
+    <t>4530.00</t>
+  </si>
+  <si>
+    <t>4623.11</t>
+  </si>
+  <si>
+    <t>2778.00</t>
+  </si>
+  <si>
+    <t>19894.00</t>
   </si>
 </sst>
 </file>
